--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>880007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>招商资管智远成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.41</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>881007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>招商资管智远成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>880007</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合A</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>881007</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商资管智远成长灵活配置混合C</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.73</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -716,15 +796,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.75</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011125</t>
+          <t>160105</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国文体健康股票C</t>
+          <t>南方积极配置混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501011</t>
+          <t>161609</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）A</t>
+          <t>融通动力先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501012</t>
+          <t>002862</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证中药指数（LOF）C</t>
+          <t>金信量化精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>74.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +938,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005517</t>
+          <t>002810</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合A</t>
+          <t>金信转型创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005518</t>
+          <t>501011</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富国新趋势灵活配置混合C</t>
+          <t>汇添富中证中药指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.99</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000554</t>
+          <t>005014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中国梦灵活配置混合</t>
+          <t>泰康景泰回报混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>160105</t>
+          <t>000554</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方积极配置混合(LOF)</t>
+          <t>南方中国梦灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161609</t>
+          <t>005517</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通动力先锋混合</t>
+          <t>富国新趋势灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>005505</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>前海开源中药研究精选股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>005506</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>前海开源中药研究精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>36.34</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005505</t>
+          <t>501012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票A</t>
+          <t>汇添富中证中药指数（LOF）C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005506</t>
+          <t>009205</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>前海开源中药研究精选股票C</t>
+          <t>兴银丰运稳益回报混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.03</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>002810</t>
+          <t>005015</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金信转型创新成长灵活配置混合</t>
+          <t>泰康景泰回报混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>80.77</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>36.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002862</t>
+          <t>011125</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>金信量化精选灵活配置混合</t>
+          <t>富国文体健康股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>74.03</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009205</t>
+          <t>009206</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合A</t>
+          <t>兴银丰运稳益回报混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>35.55</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009206</t>
+          <t>005518</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴银丰运稳益回报混合C</t>
+          <t>富国新趋势灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>35.55</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>29.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6684</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007281</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉合消费升级混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009205</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009206</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银丰运稳益回报混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>37.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2626,4 +2627,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003373</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003374</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成景禄灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3253,4 +3254,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3262,7 +3263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3273,17 +3274,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3293,14 +3314,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.39</v>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3309,14 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.59</v>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3325,14 +3390,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.23</v>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3341,13 +3428,1593 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3794</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘恒新混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4913,7 +4914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4924,17 +4925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4944,14 +4965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.8</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>173.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4960,14 +5003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.39</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4976,14 +5041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.59</v>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6035</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4992,14 +5079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.23</v>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8776</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5008,13 +5117,3773 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4019</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2232</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1623</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0929</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9271</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7845</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7068</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5984</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5854</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5684</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4772</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3987</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3406</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2903</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005113</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>76.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005114</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平安沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8766,7 +8767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8777,17 +8778,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8797,14 +8818,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.4</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>28.0059</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -8813,14 +8856,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.8</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.1674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8829,14 +8894,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.39</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8845,14 +8932,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.59</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>197.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.9319</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -8861,14 +8970,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.23</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -8877,13 +9008,4279 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3792</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0993</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6809</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5809</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5542</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2733</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9747</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7925</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7824</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7748</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7524</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7269</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6467</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6305</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5731</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5290</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3738</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3320</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3281</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1931</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>398031</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中海蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002773</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015139</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002774</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信铭鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015140</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>泰康医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D2" t="n">
-        <v>103.39</v>
+        <v>74.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>33.4</v>
+        <v>103.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>4.8</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>1.39</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3.59</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>2.23</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -600,6 +617,4988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>279.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.1050</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.6204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2434</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9053</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8567</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4468</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3893</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3669</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9272</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8875</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8129</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7956</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6498</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6462</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004424</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6347</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4886</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4709</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4700</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3359</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3221</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3218</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2536</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011876</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011877</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>景顺长城医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>016563</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>61.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>58.14</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>64.62</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015666</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>银河医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015183</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015184</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>汇添富文体娱乐主题混合D</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016352</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4979,7 +9978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8831,7 +13830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10481,7 +15480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11107,7 +16106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12303,7 +17302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13005,7 +18004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
+++ b/数据整理/stocks/A股/上证主板/600085-同仁堂.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>74.16</v>
+        <v>65.23</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D3" t="n">
-        <v>103.39</v>
+        <v>74.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>33.4</v>
+        <v>103.39</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>3.59</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>2.23</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>6</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -616,7 +633,3957 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中证中药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>343.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8970</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>297.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.1548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>244.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.2499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华富利精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>110023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达医疗保健行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6941</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4847</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4204</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3405</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2117</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证中药 ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1839</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007120</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>睿远成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7282</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005505</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4513</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信澳健康中国灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159647</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005506</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源中药研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3294</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012093</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>信澳医药健康混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2094</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>561510</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>562390</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华中证中药ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006193</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012094</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>鹏华创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007966</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007965</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014044</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>银华富利精选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006194</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鑫元核心资产股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013631</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实均衡臻选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>-271.74</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-9.1848</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5598,7 +9565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9978,7 +13945,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13830,7 +17797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15480,7 +19447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16106,7 +20073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17302,7 +21269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18002,288 +21969,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>880007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.12</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3703</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005505</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>881007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商资管智远成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005506</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源中药研究精选股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.41</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501012</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富中证中药指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>